--- a/Test_Excel.xlsx
+++ b/Test_Excel.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,15 +48,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="6342857" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +392,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>